--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -374,6 +374,11 @@
         <v>7.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -379,6 +379,16 @@
         <v>12.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -389,6 +389,16 @@
         <v>17.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>22.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programacion 3\proyecto\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3AF13D-6D0B-4ECB-919A-CEC9741BED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090B5FB3-B731-4C72-BDCA-8D934AB6407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>indice viaje</t>
+    <t>Indice Viaje</t>
   </si>
 </sst>
 </file>
@@ -346,57 +346,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090B5FB3-B731-4C72-BDCA-8D934AB6407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA1C2B8-662B-41FD-8070-8CD43CDEE45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="K13" sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -359,26 +359,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>5.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K13" sqref="A1:K13"/>
@@ -359,6 +359,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>6.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K13" sqref="A1:K13"/>
@@ -359,6 +359,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA1C2B8-662B-41FD-8070-8CD43CDEE45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8005BF04-1263-4A9D-9906-926DBC68B536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="A1:K13"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,6 +364,11 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
@@ -361,11 +361,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
         <v>3.0</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
@@ -374,6 +374,51 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8005BF04-1263-4A9D-9906-926DBC68B536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2E4DFA-849C-481F-8198-782FAC781964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H15" sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -359,66 +359,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
-        <v>13.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programacion 3\proyecto\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2E4DFA-849C-481F-8198-782FAC781964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4578D-CE8A-4754-AF73-46EE6787FBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1632" windowWidth="22812" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -346,17 +346,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="A1:H15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -389,6 +389,16 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>7.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -379,26 +379,6 @@
         <v>3.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>7.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2E4DFA-849C-481F-8198-782FAC781964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2DB150-20D7-403D-BA29-A1792669CC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="A1:H15"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2DB150-20D7-403D-BA29-A1792669CC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915E58E9-CA5D-4C2C-BA2B-A4BC1A653849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
@@ -359,6 +359,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
@@ -359,11 +359,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos.xlsx
+++ b/ProyectoPooDist/excels/pedidos.xlsx
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
@@ -359,6 +359,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
